--- a/Content/Data/模板.xlsx
+++ b/Content/Data/模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15855" windowHeight="7395"/>
+    <workbookView windowWidth="21255" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -1234,58 +1234,58 @@
     <t>CanLevelUp</t>
   </si>
   <si>
+    <t>OffencePer100Experience</t>
+  </si>
+  <si>
+    <t>DefencePer100Experience</t>
+  </si>
+  <si>
+    <t>AttackDefaultKind</t>
+  </si>
+  <si>
+    <t>AttackTargetKind</t>
+  </si>
+  <si>
+    <t>CastDefaultKind</t>
+  </si>
+  <si>
+    <t>CastTargetKind</t>
+  </si>
+  <si>
+    <t>MorphToKindId</t>
+  </si>
+  <si>
+    <t>MinCommand</t>
+  </si>
+  <si>
+    <t>CreateConditionsString</t>
+  </si>
+  <si>
+    <t>LevelUpExperience</t>
+  </si>
+  <si>
+    <t>TitleInfluence</t>
+  </si>
+  <si>
+    <t>AICreateArchitectureConditionWeightString</t>
+  </si>
+  <si>
+    <t>AILeaderConditionWeightString</t>
+  </si>
+  <si>
+    <t>AIUpgradeArchitectureConditionWeightString</t>
+  </si>
+  <si>
+    <t>AIUpgradeLeaderConditionWeightString</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
     <t>LevelUpKindID</t>
   </si>
   <si>
     <t>zijinshangxian</t>
-  </si>
-  <si>
-    <t>OffencePer100Experience</t>
-  </si>
-  <si>
-    <t>DefencePer100Experience</t>
-  </si>
-  <si>
-    <t>AttackDefaultKind</t>
-  </si>
-  <si>
-    <t>AttackTargetKind</t>
-  </si>
-  <si>
-    <t>CastDefaultKind</t>
-  </si>
-  <si>
-    <t>CastTargetKind</t>
-  </si>
-  <si>
-    <t>MorphToKindId</t>
-  </si>
-  <si>
-    <t>MinCommand</t>
-  </si>
-  <si>
-    <t>CreateConditionsString</t>
-  </si>
-  <si>
-    <t>LevelUpExperience</t>
-  </si>
-  <si>
-    <t>TitleInfluence</t>
-  </si>
-  <si>
-    <t>AICreateArchitectureConditionWeightString</t>
-  </si>
-  <si>
-    <t>AILeaderConditionWeightString</t>
-  </si>
-  <si>
-    <t>AIUpgradeArchitectureConditionWeightString</t>
-  </si>
-  <si>
-    <t>AIUpgradeLeaderConditionWeightString</t>
-  </si>
-  <si>
-    <t>Sounds</t>
   </si>
   <si>
     <t>Available</t>
@@ -2622,10 +2622,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2647,8 +2647,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2663,51 +2766,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2721,66 +2781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2790,7 +2790,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2817,7 +2817,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,31 +2943,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,61 +2985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2937,67 +2997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3027,25 +3027,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3065,17 +3056,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3098,8 +3107,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3114,146 +3123,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3601,7 +3601,7 @@
   <dimension ref="A1:BN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -5716,18 +5716,19 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CB1"/>
+  <dimension ref="A1:CD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="61" width="9.14285714285714" style="1"/>
+    <col min="64" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5911,61 +5912,61 @@
       <c r="BI1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6032,8 +6033,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="一个单位规模所增加的防御力" prompt="非负整数&#10;例：15" sqref="BG$1:BG$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="最大规模" prompt="正整数&#10;例:10000" sqref="BH$1:BH$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="能否升级" prompt="True或者False" sqref="BI$1:BI$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以升级成的兵种编号" prompt="如果前面能升级，格式为兵种ID+空格+兵种ID+空格……&#10;如果前面不能升级，则留空" sqref="BJ$1:BJ$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可携带资金上限" prompt="非负整数&#10;例：5000" sqref="BK$1:BK$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每100经验增加的攻击力" prompt="非负整数&#10;例：1" sqref="BL$1:BL$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每100经验增加的防御力" prompt="非负整数&#10;例：1" sqref="BM$1:BM$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="攻击默认目标种类编号" prompt="攻击默认目标种类编号在attackdefaultkind表中可查" sqref="BN$1:BN$1048576"/>
@@ -6046,6 +6045,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="新编所需条件" prompt="格式为条件ID+空格+条件ID+空格……，条件ID在condition表中可查&#10;例：100 501" sqref="BU$1:BU$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="升级所需经验" prompt="正整数&#10;例：500" sqref="BV$1:BV$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="出兵称号" prompt="存储项，默认填-1即可" sqref="BW$1:BW$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以升级成的兵种编号" prompt="如果前面能升级，格式为兵种ID+空格+兵种ID+空格……&#10;如果前面不能升级，则留空" sqref="CC$1:CC$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可携带资金上限" prompt="非负整数&#10;例：5000" sqref="CD$1:CD$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="存储项" prompt="存储项，默认留空即可" sqref="BX$1:CB$1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9276,16 +9277,16 @@
         <v>762</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>763</v>
